--- a/excel-util/src/main/resources/static/template/person-template.xlsx
+++ b/excel-util/src/main/resources/static/template/person-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\码云\excel-read-write-util\excel-util\src\main\resources\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4864DA-AC85-4A5E-8913-A7996E22D2BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F975BF6-80B7-4968-A8B7-97401FF39CA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,7 +705,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -798,11 +798,11 @@
         <v>20000</v>
       </c>
       <c r="I3" s="5">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="J3" s="2">
         <f>H3-H3*I3</f>
-        <v>16000</v>
+        <v>15600</v>
       </c>
       <c r="K3" s="2"/>
     </row>
